--- a/out/test/Figori_algorithm_31.xlsx
+++ b/out/test/Figori_algorithm_31.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.84740000000000004</v>
+        <v>0.84219999999999995</v>
       </c>
       <c r="B1">
-        <v>0.85804999999999998</v>
+        <v>0.79659999999999997</v>
       </c>
       <c r="C1">
-        <v>0.79479999999999995</v>
+        <v>0.84560000000000002</v>
       </c>
       <c r="D1">
-        <v>0.87350000000000005</v>
+        <v>0.83704999999999996</v>
       </c>
       <c r="E1">
-        <v>0.85760000000000003</v>
+        <v>0.85319999999999996</v>
       </c>
       <c r="F1">
-        <v>0.87350000000000005</v>
+        <v>0.85345000000000004</v>
       </c>
       <c r="G1">
-        <v>0.80430000000000001</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="H1">
-        <v>0.8367</v>
+        <v>0.79610000000000003</v>
       </c>
       <c r="I1">
-        <v>0.83930000000000005</v>
+        <v>0.86465000000000003</v>
       </c>
       <c r="J1">
-        <v>0.85640000000000005</v>
+        <v>0.86439999999999995</v>
       </c>
       <c r="K1">
-        <v>0.79810000000000003</v>
+        <v>0.79790000000000005</v>
       </c>
       <c r="L1">
-        <v>0.86970000000000003</v>
+        <v>0.86919999999999997</v>
       </c>
       <c r="M1">
-        <v>0.86339999999999995</v>
+        <v>0.87270000000000003</v>
       </c>
       <c r="N1">
-        <v>0.8034</v>
+        <v>0.87019999999999997</v>
       </c>
       <c r="O1">
-        <v>0.83104999999999996</v>
+        <v>0.86795</v>
       </c>
       <c r="P1">
-        <v>0.85389999999999999</v>
+        <v>0.85594999999999999</v>
       </c>
       <c r="Q1">
-        <v>0.83735000000000004</v>
+        <v>0.85560000000000003</v>
       </c>
       <c r="R1">
-        <v>0.86175000000000002</v>
+        <v>0.84560000000000002</v>
       </c>
       <c r="S1">
-        <v>0.80600000000000005</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="T1">
+        <v>0.87190000000000001</v>
+      </c>
+      <c r="U1">
+        <v>0.82594999999999996</v>
+      </c>
+      <c r="V1">
+        <v>0.87429999999999997</v>
+      </c>
+      <c r="W1">
+        <v>0.83909999999999996</v>
+      </c>
+      <c r="X1">
+        <v>0.83074999999999999</v>
+      </c>
+      <c r="Y1">
+        <v>0.80489999999999995</v>
+      </c>
+      <c r="Z1">
+        <v>0.87</v>
+      </c>
+      <c r="AA1">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="AB1">
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="AC1">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="AD1">
+        <v>0.86045000000000005</v>
+      </c>
+      <c r="AE1">
+        <v>0.85324999999999995</v>
+      </c>
+      <c r="AF1">
+        <v>0.79359999999999997</v>
+      </c>
+      <c r="AG1">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="AH1">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="AI1">
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="AJ1">
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="AK1">
+        <v>0.86675000000000002</v>
+      </c>
+      <c r="AL1">
+        <v>0.86575000000000002</v>
+      </c>
+      <c r="AM1">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="AN1">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="AO1">
+        <v>0.79759999999999998</v>
+      </c>
+      <c r="AP1">
+        <v>0.85275000000000001</v>
+      </c>
+      <c r="AQ1">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="AR1">
+        <v>0.86495</v>
+      </c>
+      <c r="AS1">
         <v>0.86870000000000003</v>
       </c>
-      <c r="U1">
-        <v>0.86245000000000005</v>
-      </c>
-      <c r="V1">
-        <v>0.85909999999999997</v>
-      </c>
-      <c r="W1">
-        <v>0.87490000000000001</v>
-      </c>
-      <c r="X1">
-        <v>0.85650000000000004</v>
-      </c>
-      <c r="Y1">
-        <v>0.84009999999999996</v>
-      </c>
-      <c r="Z1">
-        <v>0.87329999999999997</v>
-      </c>
-      <c r="AA1">
-        <v>0.85685</v>
-      </c>
-      <c r="AB1">
-        <v>0.83065</v>
-      </c>
-      <c r="AC1">
-        <v>0.84619999999999995</v>
-      </c>
-      <c r="AD1">
-        <v>0.86109999999999998</v>
-      </c>
-      <c r="AE1">
-        <v>0.84850000000000003</v>
-      </c>
-      <c r="AF1">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="AG1">
-        <v>0.86224999999999996</v>
-      </c>
-      <c r="AH1">
-        <v>0.86870000000000003</v>
-      </c>
-      <c r="AI1">
-        <v>0.8518</v>
-      </c>
-      <c r="AJ1">
-        <v>0.83620000000000005</v>
-      </c>
-      <c r="AK1">
-        <v>0.86734999999999995</v>
-      </c>
-      <c r="AL1">
-        <v>0.87419999999999998</v>
-      </c>
-      <c r="AM1">
-        <v>0.86270000000000002</v>
-      </c>
-      <c r="AN1">
-        <v>0.85870000000000002</v>
-      </c>
-      <c r="AO1">
-        <v>0.8518</v>
-      </c>
-      <c r="AP1">
-        <v>0.87339999999999995</v>
-      </c>
-      <c r="AQ1">
-        <v>0.87</v>
-      </c>
-      <c r="AR1">
-        <v>0.87960000000000005</v>
-      </c>
-      <c r="AS1">
-        <v>0.87809999999999999</v>
-      </c>
       <c r="AT1">
-        <v>0.86739999999999995</v>
+        <v>0.84179999999999999</v>
       </c>
       <c r="AU1">
-        <v>0.85624999999999996</v>
+        <v>0.79630000000000001</v>
       </c>
       <c r="AV1">
-        <v>0.79390000000000005</v>
+        <v>0.85645000000000004</v>
       </c>
       <c r="AW1">
-        <v>0.87880000000000003</v>
+        <v>0.79879999999999995</v>
       </c>
       <c r="AX1">
-        <v>0.82755000000000001</v>
+        <v>0.83420000000000005</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.83214999999999995</v>
+        <v>0.75980000000000003</v>
       </c>
       <c r="B2">
-        <v>0.83204999999999996</v>
+        <v>0.7399</v>
       </c>
       <c r="C2">
-        <v>0.61550000000000005</v>
+        <v>0.80645</v>
       </c>
       <c r="D2">
-        <v>0.83589999999999998</v>
+        <v>0.877</v>
       </c>
       <c r="E2">
-        <v>0.79420000000000002</v>
+        <v>0.80930000000000002</v>
       </c>
       <c r="F2">
-        <v>0.93269999999999997</v>
+        <v>0.81605000000000005</v>
       </c>
       <c r="G2">
+        <v>0.85085</v>
+      </c>
+      <c r="H2">
+        <v>0.68420000000000003</v>
+      </c>
+      <c r="I2">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="J2">
+        <v>0.83384999999999998</v>
+      </c>
+      <c r="K2">
+        <v>0.82989999999999997</v>
+      </c>
+      <c r="L2">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="M2">
+        <v>0.83760000000000001</v>
+      </c>
+      <c r="N2">
+        <v>0.84109999999999996</v>
+      </c>
+      <c r="O2">
+        <v>0.79984999999999995</v>
+      </c>
+      <c r="P2">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="Q2">
+        <v>0.85775000000000001</v>
+      </c>
+      <c r="R2">
+        <v>0.76844999999999997</v>
+      </c>
+      <c r="S2">
+        <v>0.82569999999999999</v>
+      </c>
+      <c r="T2">
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="U2">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="V2">
+        <v>0.78405000000000002</v>
+      </c>
+      <c r="W2">
+        <v>0.81269999999999998</v>
+      </c>
+      <c r="X2">
+        <v>0.67544999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>0.73409999999999997</v>
+      </c>
+      <c r="Z2">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="AA2">
         <v>0.70989999999999998</v>
       </c>
-      <c r="H2">
-        <v>0.77669999999999995</v>
-      </c>
-      <c r="I2">
-        <v>0.81020000000000003</v>
-      </c>
-      <c r="J2">
-        <v>0.83414999999999995</v>
-      </c>
-      <c r="K2">
-        <v>0.78639999999999999</v>
-      </c>
-      <c r="L2">
-        <v>0.86060000000000003</v>
-      </c>
-      <c r="M2">
-        <v>0.85135000000000005</v>
-      </c>
-      <c r="N2">
-        <v>0.77569999999999995</v>
-      </c>
-      <c r="O2">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="P2">
-        <v>0.82555000000000001</v>
-      </c>
-      <c r="Q2">
-        <v>0.74660000000000004</v>
-      </c>
-      <c r="R2">
-        <v>0.91154999999999997</v>
-      </c>
-      <c r="S2">
-        <v>0.71779999999999999</v>
-      </c>
-      <c r="T2">
-        <v>0.82310000000000005</v>
-      </c>
-      <c r="U2">
-        <v>0.82130000000000003</v>
-      </c>
-      <c r="V2">
-        <v>0.81045</v>
-      </c>
-      <c r="W2">
-        <v>0.84845000000000004</v>
-      </c>
-      <c r="X2">
-        <v>0.85085</v>
-      </c>
-      <c r="Y2">
-        <v>0.80669999999999997</v>
-      </c>
-      <c r="Z2">
-        <v>0.84830000000000005</v>
-      </c>
-      <c r="AA2">
-        <v>0.80459999999999998</v>
-      </c>
       <c r="AB2">
-        <v>0.80940000000000001</v>
+        <v>0.83565</v>
       </c>
       <c r="AC2">
-        <v>0.80679999999999996</v>
+        <v>0.89549999999999996</v>
       </c>
       <c r="AD2">
-        <v>0.7974</v>
+        <v>0.82089999999999996</v>
       </c>
       <c r="AE2">
-        <v>0.79625000000000001</v>
+        <v>0.82094999999999996</v>
       </c>
       <c r="AF2">
-        <v>0.88629999999999998</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="AG2">
-        <v>0.85350000000000004</v>
+        <v>0.80674999999999997</v>
       </c>
       <c r="AH2">
-        <v>0.8538</v>
+        <v>0.73165000000000002</v>
       </c>
       <c r="AI2">
-        <v>0.84545000000000003</v>
+        <v>0.6925</v>
       </c>
       <c r="AJ2">
-        <v>0.77690000000000003</v>
+        <v>0.83840000000000003</v>
       </c>
       <c r="AK2">
-        <v>0.8649</v>
+        <v>0.79154999999999998</v>
       </c>
       <c r="AL2">
-        <v>0.83919999999999995</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="AM2">
-        <v>0.84789999999999999</v>
+        <v>0.85060000000000002</v>
       </c>
       <c r="AN2">
-        <v>0.81415000000000004</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="AO2">
-        <v>0.80089999999999995</v>
+        <v>0.70730000000000004</v>
       </c>
       <c r="AP2">
-        <v>0.76375000000000004</v>
+        <v>0.8085</v>
       </c>
       <c r="AQ2">
-        <v>0.8488</v>
+        <v>0.81179999999999997</v>
       </c>
       <c r="AR2">
-        <v>0.85970000000000002</v>
+        <v>0.8579</v>
       </c>
       <c r="AS2">
-        <v>0.84619999999999995</v>
+        <v>0.80130000000000001</v>
       </c>
       <c r="AT2">
-        <v>0.84430000000000005</v>
+        <v>0.9093</v>
       </c>
       <c r="AU2">
-        <v>0.79500000000000004</v>
+        <v>0.7631</v>
       </c>
       <c r="AV2">
-        <v>0.68969999999999998</v>
+        <v>0.84960000000000002</v>
       </c>
       <c r="AW2">
-        <v>0.88549999999999995</v>
+        <v>0.79290000000000005</v>
       </c>
       <c r="AX2">
-        <v>0.77859999999999996</v>
+        <v>0.78239999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.77044999999999997</v>
+        <v>0.66569999999999996</v>
       </c>
       <c r="B3">
-        <v>0.84670000000000001</v>
+        <v>0.64270000000000005</v>
       </c>
       <c r="C3">
-        <v>0.54459999999999997</v>
+        <v>0.71240000000000003</v>
       </c>
       <c r="D3">
-        <v>0.92700000000000005</v>
+        <v>0.77949999999999997</v>
       </c>
       <c r="E3">
-        <v>0.87070000000000003</v>
+        <v>0.78105000000000002</v>
       </c>
       <c r="F3">
-        <v>0.8609</v>
+        <v>0.78210000000000002</v>
       </c>
       <c r="G3">
-        <v>0.5212</v>
+        <v>0.77929999999999999</v>
       </c>
       <c r="H3">
-        <v>0.63629999999999998</v>
+        <v>0.43680000000000002</v>
       </c>
       <c r="I3">
-        <v>0.91449999999999998</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="J3">
-        <v>0.79859999999999998</v>
+        <v>0.76290000000000002</v>
       </c>
       <c r="K3">
+        <v>0.84109999999999996</v>
+      </c>
+      <c r="L3">
+        <v>0.72345000000000004</v>
+      </c>
+      <c r="M3">
+        <v>0.80730000000000002</v>
+      </c>
+      <c r="N3">
+        <v>0.88929999999999998</v>
+      </c>
+      <c r="O3">
+        <v>0.75</v>
+      </c>
+      <c r="P3">
+        <v>0.71625000000000005</v>
+      </c>
+      <c r="Q3">
+        <v>0.80230000000000001</v>
+      </c>
+      <c r="R3">
+        <v>0.78869999999999996</v>
+      </c>
+      <c r="S3">
+        <v>0.62760000000000005</v>
+      </c>
+      <c r="T3">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="U3">
+        <v>0.66059999999999997</v>
+      </c>
+      <c r="V3">
+        <v>0.65024999999999999</v>
+      </c>
+      <c r="W3">
+        <v>0.73060000000000003</v>
+      </c>
+      <c r="X3">
+        <v>0.60865000000000002</v>
+      </c>
+      <c r="Y3">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="Z3">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="AA3">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="AB3">
+        <v>0.70820000000000005</v>
+      </c>
+      <c r="AC3">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="AD3">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="AE3">
+        <v>0.65505000000000002</v>
+      </c>
+      <c r="AF3">
+        <v>0.64759999999999995</v>
+      </c>
+      <c r="AG3">
+        <v>0.73070000000000002</v>
+      </c>
+      <c r="AH3">
+        <v>0.64229999999999998</v>
+      </c>
+      <c r="AI3">
+        <v>0.51790000000000003</v>
+      </c>
+      <c r="AJ3">
         <v>0.81200000000000006</v>
       </c>
-      <c r="L3">
-        <v>0.7661</v>
-      </c>
-      <c r="M3">
-        <v>0.82110000000000005</v>
-      </c>
-      <c r="N3">
-        <v>0.67689999999999995</v>
-      </c>
-      <c r="O3">
-        <v>0.65544999999999998</v>
-      </c>
-      <c r="P3">
-        <v>0.79169999999999996</v>
-      </c>
-      <c r="Q3">
-        <v>0.80559999999999998</v>
-      </c>
-      <c r="R3">
-        <v>0.93369999999999997</v>
-      </c>
-      <c r="S3">
-        <v>0.58379999999999999</v>
-      </c>
-      <c r="T3">
-        <v>0.74319999999999997</v>
-      </c>
-      <c r="U3">
-        <v>0.755</v>
-      </c>
-      <c r="V3">
-        <v>0.80510000000000004</v>
-      </c>
-      <c r="W3">
-        <v>0.81820000000000004</v>
-      </c>
-      <c r="X3">
-        <v>0.8196</v>
-      </c>
-      <c r="Y3">
-        <v>0.63649999999999995</v>
-      </c>
-      <c r="Z3">
-        <v>0.78090000000000004</v>
-      </c>
-      <c r="AA3">
-        <v>0.80789999999999995</v>
-      </c>
-      <c r="AB3">
-        <v>0.74234999999999995</v>
-      </c>
-      <c r="AC3">
-        <v>0.87919999999999998</v>
-      </c>
-      <c r="AD3">
-        <v>0.8306</v>
-      </c>
-      <c r="AE3">
-        <v>0.81420000000000003</v>
-      </c>
-      <c r="AF3">
-        <v>0.88109999999999999</v>
-      </c>
-      <c r="AG3">
-        <v>0.86129999999999995</v>
-      </c>
-      <c r="AH3">
-        <v>0.81559999999999999</v>
-      </c>
-      <c r="AI3">
-        <v>0.75119999999999998</v>
-      </c>
-      <c r="AJ3">
-        <v>0.74229999999999996</v>
-      </c>
       <c r="AK3">
-        <v>0.82499999999999996</v>
+        <v>0.72009999999999996</v>
       </c>
       <c r="AL3">
-        <v>0.83530000000000004</v>
+        <v>0.73480000000000001</v>
       </c>
       <c r="AM3">
-        <v>0.73565000000000003</v>
+        <v>0.8266</v>
       </c>
       <c r="AN3">
-        <v>0.7177</v>
+        <v>0.71414999999999995</v>
       </c>
       <c r="AO3">
-        <v>0.68059999999999998</v>
+        <v>0.59670000000000001</v>
       </c>
       <c r="AP3">
-        <v>0.65680000000000005</v>
+        <v>0.77039999999999997</v>
       </c>
       <c r="AQ3">
-        <v>0.74839999999999995</v>
+        <v>0.76559999999999995</v>
       </c>
       <c r="AR3">
-        <v>0.8075</v>
+        <v>0.64475000000000005</v>
       </c>
       <c r="AS3">
-        <v>0.83020000000000005</v>
+        <v>0.80389999999999995</v>
       </c>
       <c r="AT3">
-        <v>0.72929999999999995</v>
+        <v>0.84079999999999999</v>
       </c>
       <c r="AU3">
-        <v>0.7379</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="AV3">
-        <v>0.4279</v>
+        <v>0.76544999999999996</v>
       </c>
       <c r="AW3">
-        <v>0.79920000000000002</v>
+        <v>0.68830000000000002</v>
       </c>
       <c r="AX3">
-        <v>0.40920000000000001</v>
+        <v>0.79449999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.83799999999999997</v>
+        <v>0.59519999999999995</v>
       </c>
       <c r="B4">
-        <v>0.81320000000000003</v>
+        <v>0.45140000000000002</v>
       </c>
       <c r="C4">
-        <v>0.42899999999999999</v>
+        <v>0.5383</v>
       </c>
       <c r="D4">
-        <v>0.81320000000000003</v>
+        <v>0.75980000000000003</v>
       </c>
       <c r="E4">
-        <v>0.83360000000000001</v>
+        <v>0.63290000000000002</v>
       </c>
       <c r="F4">
-        <v>0.86009999999999998</v>
+        <v>0.92130000000000001</v>
       </c>
       <c r="G4">
-        <v>0.55510000000000004</v>
+        <v>0.70150000000000001</v>
       </c>
       <c r="H4">
-        <v>0.45600000000000002</v>
+        <v>0.70640000000000003</v>
       </c>
       <c r="I4">
-        <v>0.90329999999999999</v>
+        <v>0.83679999999999999</v>
       </c>
       <c r="J4">
-        <v>0.70030000000000003</v>
+        <v>0.61719999999999997</v>
       </c>
       <c r="K4">
-        <v>0.78369999999999995</v>
+        <v>0.81140000000000001</v>
       </c>
       <c r="L4">
-        <v>0.66930000000000001</v>
+        <v>0.62890000000000001</v>
       </c>
       <c r="M4">
-        <v>0.89159999999999995</v>
+        <v>0.69040000000000001</v>
       </c>
       <c r="N4">
-        <v>0.41410000000000002</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="O4">
-        <v>0.80230000000000001</v>
+        <v>0.58189999999999997</v>
       </c>
       <c r="P4">
-        <v>0.69210000000000005</v>
+        <v>0.61485000000000001</v>
       </c>
       <c r="Q4">
-        <v>0.73509999999999998</v>
+        <v>0.83819999999999995</v>
       </c>
       <c r="R4">
-        <v>0.94189999999999996</v>
+        <v>0.65690000000000004</v>
       </c>
       <c r="S4">
-        <v>0.76880000000000004</v>
+        <v>0.54990000000000006</v>
       </c>
       <c r="T4">
-        <v>0.65539999999999998</v>
+        <v>0.74550000000000005</v>
       </c>
       <c r="U4">
-        <v>0.74360000000000004</v>
+        <v>0.51439999999999997</v>
       </c>
       <c r="V4">
-        <v>0.79449999999999998</v>
+        <v>0.64590000000000003</v>
       </c>
       <c r="W4">
-        <v>0.77254999999999996</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="X4">
-        <v>0.70299999999999996</v>
+        <v>0.4718</v>
       </c>
       <c r="Y4">
-        <v>0.60370000000000001</v>
+        <v>0.71040000000000003</v>
       </c>
       <c r="Z4">
-        <v>0.72789999999999999</v>
+        <v>0.76780000000000004</v>
       </c>
       <c r="AA4">
-        <v>0.68540000000000001</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="AB4">
-        <v>0.62250000000000005</v>
+        <v>0.6865</v>
       </c>
       <c r="AC4">
-        <v>0.84870000000000001</v>
+        <v>0.83909999999999996</v>
       </c>
       <c r="AD4">
-        <v>0.69679999999999997</v>
+        <v>0.75029999999999997</v>
       </c>
       <c r="AE4">
-        <v>0.84040000000000004</v>
+        <v>0.66039999999999999</v>
       </c>
       <c r="AF4">
-        <v>0.84379999999999999</v>
+        <v>0.43380000000000002</v>
       </c>
       <c r="AG4">
-        <v>0.82879999999999998</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="AH4">
-        <v>0.78069999999999995</v>
+        <v>0.5403</v>
       </c>
       <c r="AI4">
-        <v>0.66139999999999999</v>
+        <v>0.64239999999999997</v>
       </c>
       <c r="AJ4">
-        <v>0.54169999999999996</v>
+        <v>0.83609999999999995</v>
       </c>
       <c r="AK4">
-        <v>0.78029999999999999</v>
+        <v>0.67659999999999998</v>
       </c>
       <c r="AL4">
-        <v>0.73855000000000004</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="AM4">
-        <v>0.67244999999999999</v>
+        <v>0.76329999999999998</v>
       </c>
       <c r="AN4">
-        <v>0.52110000000000001</v>
+        <v>0.6512</v>
       </c>
       <c r="AO4">
-        <v>0.63800000000000001</v>
+        <v>0.48280000000000001</v>
       </c>
       <c r="AP4">
-        <v>0.53979999999999995</v>
+        <v>0.64759999999999995</v>
       </c>
       <c r="AQ4">
-        <v>0.64800000000000002</v>
+        <v>0.89359999999999995</v>
       </c>
       <c r="AR4">
-        <v>0.9093</v>
+        <v>0.61409999999999998</v>
       </c>
       <c r="AS4">
-        <v>0.75439999999999996</v>
+        <v>0.7661</v>
       </c>
       <c r="AT4">
-        <v>0.65859999999999996</v>
+        <v>0.79690000000000005</v>
       </c>
       <c r="AU4">
-        <v>0.65815000000000001</v>
+        <v>0.78159999999999996</v>
       </c>
       <c r="AV4">
-        <v>0.64970000000000006</v>
+        <v>0.71340000000000003</v>
       </c>
       <c r="AW4">
-        <v>0.75214999999999999</v>
+        <v>0.66790000000000005</v>
       </c>
       <c r="AX4">
-        <v>0.33779999999999999</v>
+        <v>0.6865</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.86409999999999998</v>
+        <v>0.55569999999999997</v>
       </c>
       <c r="B5">
-        <v>0.74529999999999996</v>
+        <v>0.3533</v>
       </c>
       <c r="C5">
-        <v>0.52290000000000003</v>
+        <v>0.44169999999999998</v>
       </c>
       <c r="D5">
-        <v>0.77110000000000001</v>
+        <v>0.68759999999999999</v>
       </c>
       <c r="E5">
-        <v>0.74719999999999998</v>
+        <v>0.82330000000000003</v>
       </c>
       <c r="F5">
-        <v>0.77310000000000001</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="G5">
-        <v>0.37140000000000001</v>
+        <v>0.68889999999999996</v>
       </c>
       <c r="H5">
-        <v>0.31580000000000003</v>
+        <v>0.5605</v>
       </c>
       <c r="I5">
-        <v>0.76019999999999999</v>
+        <v>0.81520000000000004</v>
       </c>
       <c r="J5">
-        <v>0.59309999999999996</v>
+        <v>0.59640000000000004</v>
       </c>
       <c r="K5">
-        <v>0.87139999999999995</v>
+        <v>0.70389999999999997</v>
       </c>
       <c r="L5">
-        <v>0.60119999999999996</v>
+        <v>0.64729999999999999</v>
       </c>
       <c r="M5">
-        <v>0.93130000000000002</v>
+        <v>0.62050000000000005</v>
       </c>
       <c r="N5">
-        <v>0.67879999999999996</v>
+        <v>0.81020000000000003</v>
       </c>
       <c r="O5">
-        <v>0.72919999999999996</v>
+        <v>0.61909999999999998</v>
       </c>
       <c r="P5">
-        <v>0.90190000000000003</v>
+        <v>0.64180000000000004</v>
       </c>
       <c r="Q5">
-        <v>0.84550000000000003</v>
+        <v>0.75660000000000005</v>
       </c>
       <c r="R5">
-        <v>0.84470000000000001</v>
+        <v>0.5887</v>
       </c>
       <c r="S5">
-        <v>0.6804</v>
+        <v>0.50529999999999997</v>
       </c>
       <c r="T5">
-        <v>0.69769999999999999</v>
+        <v>0.70320000000000005</v>
       </c>
       <c r="U5">
-        <v>0.77100000000000002</v>
+        <v>0.60529999999999995</v>
       </c>
       <c r="V5">
-        <v>0.69079999999999997</v>
+        <v>0.58550000000000002</v>
       </c>
       <c r="W5">
-        <v>0.54690000000000005</v>
+        <v>0.5353</v>
       </c>
       <c r="X5">
+        <v>0.33029999999999998</v>
+      </c>
+      <c r="Y5">
+        <v>0.60829999999999995</v>
+      </c>
+      <c r="Z5">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="AA5">
+        <v>0.49759999999999999</v>
+      </c>
+      <c r="AB5">
+        <v>0.74439999999999995</v>
+      </c>
+      <c r="AC5">
         <v>0.90659999999999996</v>
       </c>
-      <c r="Y5">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="Z5">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="AA5">
-        <v>0.69594999999999996</v>
-      </c>
-      <c r="AB5">
-        <v>0.4209</v>
-      </c>
-      <c r="AC5">
-        <v>0.83560000000000001</v>
-      </c>
       <c r="AD5">
-        <v>0.57689999999999997</v>
+        <v>0.71719999999999995</v>
       </c>
       <c r="AE5">
-        <v>0.77490000000000003</v>
+        <v>0.39150000000000001</v>
       </c>
       <c r="AF5">
-        <v>0.76590000000000003</v>
+        <v>0.29620000000000002</v>
       </c>
       <c r="AG5">
-        <v>0.83050000000000002</v>
+        <v>0.60140000000000005</v>
       </c>
       <c r="AH5">
-        <v>0.6724</v>
+        <v>0.34510000000000002</v>
       </c>
       <c r="AI5">
-        <v>0.42570000000000002</v>
+        <v>0.3911</v>
       </c>
       <c r="AJ5">
-        <v>0.4456</v>
+        <v>0.88739999999999997</v>
       </c>
       <c r="AK5">
-        <v>0.66180000000000005</v>
+        <v>0.71750000000000003</v>
       </c>
       <c r="AL5">
-        <v>0.64380000000000004</v>
+        <v>0.74560000000000004</v>
       </c>
       <c r="AM5">
-        <v>0.65159999999999996</v>
+        <v>0.64029999999999998</v>
       </c>
       <c r="AN5">
-        <v>0.60019999999999996</v>
+        <v>0.58809999999999996</v>
       </c>
       <c r="AO5">
-        <v>0.64159999999999995</v>
+        <v>0.253</v>
       </c>
       <c r="AP5">
-        <v>0.60440000000000005</v>
+        <v>0.56889999999999996</v>
       </c>
       <c r="AQ5">
-        <v>0.40050000000000002</v>
+        <v>0.878</v>
       </c>
       <c r="AR5">
-        <v>0.8266</v>
+        <v>0.72130000000000005</v>
       </c>
       <c r="AS5">
-        <v>0.71530000000000005</v>
+        <v>0.73240000000000005</v>
       </c>
       <c r="AT5">
-        <v>0.79630000000000001</v>
+        <v>0.78039999999999998</v>
       </c>
       <c r="AU5">
-        <v>0.72160000000000002</v>
+        <v>0.55940000000000001</v>
       </c>
       <c r="AV5">
-        <v>0.6028</v>
+        <v>0.53190000000000004</v>
       </c>
       <c r="AW5">
-        <v>0.72770000000000001</v>
+        <v>0.42430000000000001</v>
       </c>
       <c r="AX5">
-        <v>0.442</v>
+        <v>0.52270000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.80249999999999999</v>
+        <v>0.43609999999999999</v>
       </c>
       <c r="B6">
-        <v>0.76880000000000004</v>
+        <v>0.44579999999999997</v>
       </c>
       <c r="C6">
-        <v>0.81020000000000003</v>
+        <v>0.73160000000000003</v>
       </c>
       <c r="D6">
-        <v>0.70479999999999998</v>
+        <v>0.91739999999999999</v>
       </c>
       <c r="E6">
-        <v>0.81669999999999998</v>
+        <v>0.81420000000000003</v>
       </c>
       <c r="F6">
-        <v>0.82289999999999996</v>
+        <v>0.88880000000000003</v>
       </c>
       <c r="G6">
-        <v>0.33510000000000001</v>
+        <v>0.86760000000000004</v>
       </c>
       <c r="H6">
-        <v>0.2923</v>
+        <v>0.58630000000000004</v>
       </c>
       <c r="I6">
-        <v>0.87739999999999996</v>
+        <v>0.83909999999999996</v>
       </c>
       <c r="J6">
-        <v>0.57320000000000004</v>
+        <v>0.47410000000000002</v>
       </c>
       <c r="K6">
-        <v>0.89380000000000004</v>
+        <v>0.78859999999999997</v>
       </c>
       <c r="L6">
-        <v>0.73280000000000001</v>
+        <v>0.53769999999999996</v>
       </c>
       <c r="M6">
-        <v>0.91020000000000001</v>
+        <v>0.69359999999999999</v>
       </c>
       <c r="N6">
-        <v>0.51859999999999995</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="O6">
-        <v>0.73745000000000005</v>
+        <v>0.45290000000000002</v>
       </c>
       <c r="P6">
-        <v>0.77549999999999997</v>
+        <v>0.66220000000000001</v>
       </c>
       <c r="Q6">
-        <v>0.53839999999999999</v>
+        <v>0.80020000000000002</v>
       </c>
       <c r="R6">
-        <v>0.75960000000000005</v>
+        <v>0.65739999999999998</v>
       </c>
       <c r="S6">
-        <v>0.7631</v>
+        <v>0.30730000000000002</v>
       </c>
       <c r="T6">
-        <v>0.66500000000000004</v>
+        <v>0.51329999999999998</v>
       </c>
       <c r="U6">
-        <v>0.71109999999999995</v>
+        <v>0.7732</v>
       </c>
       <c r="V6">
-        <v>0.42099999999999999</v>
+        <v>0.4955</v>
       </c>
       <c r="W6">
-        <v>0.39279999999999998</v>
+        <v>0.47610000000000002</v>
       </c>
       <c r="X6">
-        <v>0.97570000000000001</v>
+        <v>0.25159999999999999</v>
       </c>
       <c r="Y6">
-        <v>0.55000000000000004</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="Z6">
-        <v>0.57830000000000004</v>
+        <v>0.72260000000000002</v>
       </c>
       <c r="AA6">
-        <v>0.68359999999999999</v>
+        <v>0.62970000000000004</v>
       </c>
       <c r="AB6">
-        <v>0.22819999999999999</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="AC6">
-        <v>0.79930000000000001</v>
+        <v>0.8861</v>
       </c>
       <c r="AD6">
-        <v>0.34960000000000002</v>
+        <v>0.74350000000000005</v>
       </c>
       <c r="AE6">
-        <v>0.71689999999999998</v>
+        <v>0.28110000000000002</v>
       </c>
       <c r="AF6">
-        <v>0.94369999999999998</v>
+        <v>0.66549999999999998</v>
       </c>
       <c r="AG6">
-        <v>0.86860000000000004</v>
+        <v>0.46029999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.5111</v>
+        <v>0.27</v>
       </c>
       <c r="AI6">
-        <v>0.54020000000000001</v>
+        <v>0.21440000000000001</v>
       </c>
       <c r="AJ6">
-        <v>0.31080000000000002</v>
+        <v>0.9446</v>
       </c>
       <c r="AK6">
-        <v>0.76070000000000004</v>
+        <v>0.6724</v>
       </c>
       <c r="AL6">
-        <v>0.5403</v>
+        <v>0.7984</v>
       </c>
       <c r="AM6">
-        <v>0.44819999999999999</v>
+        <v>0.41220000000000001</v>
       </c>
       <c r="AN6">
-        <v>0.49330000000000002</v>
+        <v>0.55459999999999998</v>
       </c>
       <c r="AO6">
-        <v>0.70009999999999994</v>
+        <v>0.26219999999999999</v>
       </c>
       <c r="AP6">
-        <v>0.47260000000000002</v>
+        <v>0.4017</v>
       </c>
       <c r="AQ6">
-        <v>0.28749999999999998</v>
+        <v>0.75760000000000005</v>
       </c>
       <c r="AR6">
-        <v>0.749</v>
+        <v>0.81069999999999998</v>
       </c>
       <c r="AS6">
-        <v>0.64939999999999998</v>
+        <v>0.6431</v>
       </c>
       <c r="AT6">
-        <v>0.75009999999999999</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="AU6">
-        <v>0.80159999999999998</v>
+        <v>0.73170000000000002</v>
       </c>
       <c r="AV6">
-        <v>0.52049999999999996</v>
+        <v>0.53090000000000004</v>
       </c>
       <c r="AW6">
-        <v>0.74819999999999998</v>
+        <v>0.38929999999999998</v>
       </c>
       <c r="AX6">
-        <v>0.73089999999999999</v>
+        <v>0.62960000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.59940000000000004</v>
+        <v>0.51090000000000002</v>
       </c>
       <c r="B7">
-        <v>0.64290000000000003</v>
+        <v>0.4582</v>
       </c>
       <c r="C7">
-        <v>0.86260000000000003</v>
+        <v>0.7571</v>
       </c>
       <c r="D7">
-        <v>0.78449999999999998</v>
+        <v>0.73809999999999998</v>
       </c>
       <c r="E7">
-        <v>0.59640000000000004</v>
+        <v>0.7772</v>
       </c>
       <c r="F7">
-        <v>0.79949999999999999</v>
+        <v>0.81740000000000002</v>
       </c>
       <c r="G7">
-        <v>0.1487</v>
+        <v>0.78059999999999996</v>
       </c>
       <c r="H7">
-        <v>0.53649999999999998</v>
+        <v>0.6804</v>
       </c>
       <c r="I7">
-        <v>0.74490000000000001</v>
+        <v>0.80779999999999996</v>
       </c>
       <c r="J7">
-        <v>0.59570000000000001</v>
+        <v>0.38440000000000002</v>
       </c>
       <c r="K7">
-        <v>0.87660000000000005</v>
+        <v>0.54930000000000001</v>
       </c>
       <c r="L7">
-        <v>0.50049999999999994</v>
+        <v>0.37930000000000003</v>
       </c>
       <c r="M7">
-        <v>0.92630000000000001</v>
+        <v>0.60050000000000003</v>
       </c>
       <c r="N7">
-        <v>0.62529999999999997</v>
+        <v>0.68689999999999996</v>
       </c>
       <c r="O7">
-        <v>0.73029999999999995</v>
+        <v>0.31580000000000003</v>
       </c>
       <c r="P7">
-        <v>0.82589999999999997</v>
+        <v>0.41749999999999998</v>
       </c>
       <c r="Q7">
-        <v>0.5554</v>
+        <v>0.74809999999999999</v>
       </c>
       <c r="R7">
-        <v>0.80010000000000003</v>
+        <v>0.74109999999999998</v>
       </c>
       <c r="S7">
-        <v>0.57979999999999998</v>
+        <v>0.30330000000000001</v>
       </c>
       <c r="T7">
-        <v>0.75960000000000005</v>
+        <v>0.4985</v>
       </c>
       <c r="U7">
-        <v>0.63580000000000003</v>
+        <v>0.86839999999999995</v>
       </c>
       <c r="V7">
-        <v>0.43480000000000002</v>
+        <v>0.48060000000000003</v>
       </c>
       <c r="W7">
-        <v>0.51780000000000004</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="X7">
-        <v>0.94810000000000005</v>
+        <v>0.4556</v>
       </c>
       <c r="Y7">
-        <v>0.54620000000000002</v>
+        <v>0.4531</v>
       </c>
       <c r="Z7">
-        <v>0.47489999999999999</v>
+        <v>0.7157</v>
       </c>
       <c r="AA7">
-        <v>0.69389999999999996</v>
+        <v>0.82430000000000003</v>
       </c>
       <c r="AB7">
-        <v>0.36809999999999998</v>
+        <v>0.80730000000000002</v>
       </c>
       <c r="AC7">
-        <v>0.84960000000000002</v>
+        <v>0.66890000000000005</v>
       </c>
       <c r="AD7">
-        <v>0.43690000000000001</v>
+        <v>0.88929999999999998</v>
       </c>
       <c r="AE7">
-        <v>0.62460000000000004</v>
+        <v>0.58389999999999997</v>
       </c>
       <c r="AF7">
-        <v>0.90690000000000004</v>
+        <v>0.73260000000000003</v>
       </c>
       <c r="AG7">
-        <v>0.7581</v>
+        <v>0.21740000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.43290000000000001</v>
+        <v>0.30480000000000002</v>
       </c>
       <c r="AI7">
-        <v>0.46879999999999999</v>
+        <v>0.41860000000000003</v>
       </c>
       <c r="AJ7">
-        <v>0.41049999999999998</v>
+        <v>0.81010000000000004</v>
       </c>
       <c r="AK7">
-        <v>0.43759999999999999</v>
+        <v>0.5212</v>
       </c>
       <c r="AL7">
-        <v>0.50719999999999998</v>
+        <v>0.61550000000000005</v>
       </c>
       <c r="AM7">
-        <v>0.34920000000000001</v>
+        <v>0.47449999999999998</v>
       </c>
       <c r="AN7">
-        <v>0.53029999999999999</v>
+        <v>0.64449999999999996</v>
       </c>
       <c r="AO7">
-        <v>0.59150000000000003</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="AP7">
-        <v>0.44169999999999998</v>
+        <v>0.20780000000000001</v>
       </c>
       <c r="AQ7">
-        <v>0.27050000000000002</v>
+        <v>0.71870000000000001</v>
       </c>
       <c r="AR7">
-        <v>0.80100000000000005</v>
+        <v>0.68840000000000001</v>
       </c>
       <c r="AS7">
-        <v>0.72789999999999999</v>
+        <v>0.54559999999999997</v>
       </c>
       <c r="AT7">
-        <v>0.69720000000000004</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="AU7">
-        <v>0.58850000000000002</v>
+        <v>0.54449999999999998</v>
       </c>
       <c r="AV7">
-        <v>0.58809999999999996</v>
+        <v>0.5756</v>
       </c>
       <c r="AW7">
-        <v>0.88690000000000002</v>
+        <v>0.2913</v>
       </c>
       <c r="AX7">
-        <v>0.80110000000000003</v>
+        <v>0.58979999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.61270000000000002</v>
+        <v>0.5696</v>
       </c>
       <c r="B8">
-        <v>0.50700000000000001</v>
+        <v>0.50460000000000005</v>
       </c>
       <c r="C8">
-        <v>0.70079999999999998</v>
+        <v>0.75760000000000005</v>
       </c>
       <c r="D8">
-        <v>0.64239999999999997</v>
+        <v>0.95169999999999999</v>
       </c>
       <c r="E8">
-        <v>0.38019999999999998</v>
+        <v>0.78069999999999995</v>
       </c>
       <c r="F8">
-        <v>0.85760000000000003</v>
+        <v>0.83109999999999995</v>
       </c>
       <c r="G8">
-        <v>1.7899999999999999E-2</v>
+        <v>0.80220000000000002</v>
       </c>
       <c r="H8">
-        <v>0.71499999999999997</v>
+        <v>0.65410000000000001</v>
       </c>
       <c r="I8">
-        <v>0.60980000000000001</v>
+        <v>0.71930000000000005</v>
       </c>
       <c r="J8">
-        <v>0.58230000000000004</v>
+        <v>0.29949999999999999</v>
       </c>
       <c r="K8">
-        <v>0.73899999999999999</v>
+        <v>0.43090000000000001</v>
       </c>
       <c r="L8">
-        <v>0.2427</v>
+        <v>0.53990000000000005</v>
       </c>
       <c r="M8">
-        <v>0.87360000000000004</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="N8">
-        <v>0.64080000000000004</v>
+        <v>0.49359999999999998</v>
       </c>
       <c r="O8">
-        <v>0.90239999999999998</v>
+        <v>0.1852</v>
       </c>
       <c r="P8">
-        <v>0.69669999999999999</v>
+        <v>0.48220000000000002</v>
       </c>
       <c r="Q8">
-        <v>0.52510000000000001</v>
+        <v>0.83030000000000004</v>
       </c>
       <c r="R8">
-        <v>0.74399999999999999</v>
+        <v>0.63019999999999998</v>
       </c>
       <c r="S8">
-        <v>0.38869999999999999</v>
+        <v>0.48330000000000001</v>
       </c>
       <c r="T8">
-        <v>0.83909999999999996</v>
+        <v>0.62170000000000003</v>
       </c>
       <c r="U8">
-        <v>0.89319999999999999</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="V8">
-        <v>0.50109999999999999</v>
+        <v>0.6764</v>
       </c>
       <c r="W8">
-        <v>0.4128</v>
+        <v>0.64859999999999995</v>
       </c>
       <c r="X8">
-        <v>0.8548</v>
+        <v>0.47289999999999999</v>
       </c>
       <c r="Y8">
-        <v>0.7298</v>
+        <v>0.4088</v>
       </c>
       <c r="Z8">
-        <v>0.55930000000000002</v>
+        <v>0.62</v>
       </c>
       <c r="AA8">
-        <v>0.55740000000000001</v>
+        <v>0.59909999999999997</v>
       </c>
       <c r="AB8">
-        <v>0.52729999999999999</v>
+        <v>0.82179999999999997</v>
       </c>
       <c r="AC8">
-        <v>0.9899</v>
+        <v>0.60940000000000005</v>
       </c>
       <c r="AD8">
-        <v>0.4793</v>
+        <v>0.66559999999999997</v>
       </c>
       <c r="AE8">
-        <v>0.76400000000000001</v>
+        <v>0.5071</v>
       </c>
       <c r="AF8">
-        <v>0.84079999999999999</v>
+        <v>0.66790000000000005</v>
       </c>
       <c r="AG8">
-        <v>0.72950000000000004</v>
+        <v>0.22650000000000001</v>
       </c>
       <c r="AH8">
-        <v>0.32179999999999997</v>
+        <v>0.26129999999999998</v>
       </c>
       <c r="AI8">
-        <v>0.29330000000000001</v>
+        <v>0.46850000000000003</v>
       </c>
       <c r="AJ8">
-        <v>0.38455</v>
+        <v>0.76549999999999996</v>
       </c>
       <c r="AK8">
-        <v>0.4597</v>
+        <v>0.4385</v>
       </c>
       <c r="AL8">
-        <v>0.58450000000000002</v>
+        <v>0.57740000000000002</v>
       </c>
       <c r="AM8">
-        <v>0.35320000000000001</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="AN8">
-        <v>0.49049999999999999</v>
+        <v>0.63439999999999996</v>
       </c>
       <c r="AO8">
-        <v>0.75539999999999996</v>
+        <v>0.48320000000000002</v>
       </c>
       <c r="AP8">
-        <v>0.49659999999999999</v>
+        <v>0.10589999999999999</v>
       </c>
       <c r="AQ8">
-        <v>0.39250000000000002</v>
+        <v>0.64690000000000003</v>
       </c>
       <c r="AR8">
-        <v>0.75309999999999999</v>
+        <v>0.62180000000000002</v>
       </c>
       <c r="AS8">
-        <v>0.79410000000000003</v>
+        <v>0.49909999999999999</v>
       </c>
       <c r="AT8">
-        <v>0.75829999999999997</v>
+        <v>0.86819999999999997</v>
       </c>
       <c r="AU8">
-        <v>0.37580000000000002</v>
+        <v>0.48709999999999998</v>
       </c>
       <c r="AV8">
-        <v>0.61539999999999995</v>
+        <v>0.50609999999999999</v>
       </c>
       <c r="AW8">
-        <v>0.64939999999999998</v>
+        <v>0.1958</v>
       </c>
       <c r="AX8">
-        <v>0.63060000000000005</v>
+        <v>0.39950000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.35539999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="B9">
-        <v>0.60860000000000003</v>
+        <v>0.2676</v>
       </c>
       <c r="C9">
-        <v>0.52539999999999998</v>
+        <v>0.74909999999999999</v>
       </c>
       <c r="D9">
-        <v>0.58720000000000006</v>
+        <v>0.97319999999999995</v>
       </c>
       <c r="E9">
-        <v>0.29659999999999997</v>
+        <v>0.87729999999999997</v>
       </c>
       <c r="F9">
-        <v>0.74029999999999996</v>
+        <v>0.74839999999999995</v>
       </c>
       <c r="G9">
-        <v>7.2999999999999995E-2</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="H9">
-        <v>0.44769999999999999</v>
+        <v>0.50849999999999995</v>
       </c>
       <c r="I9">
-        <v>0.53559999999999997</v>
+        <v>0.57379999999999998</v>
       </c>
       <c r="J9">
-        <v>0.75690000000000002</v>
+        <v>0.44340000000000002</v>
       </c>
       <c r="K9">
-        <v>0.67900000000000005</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="L9">
-        <v>0.38109999999999999</v>
+        <v>0.45179999999999998</v>
       </c>
       <c r="M9">
-        <v>0.73580000000000001</v>
+        <v>0.8085</v>
       </c>
       <c r="N9">
-        <v>0.69869999999999999</v>
+        <v>0.4264</v>
       </c>
       <c r="O9">
-        <v>0.85870000000000002</v>
+        <v>0.1822</v>
       </c>
       <c r="P9">
-        <v>0.56179999999999997</v>
+        <v>0.40579999999999999</v>
       </c>
       <c r="Q9">
-        <v>0.51539999999999997</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="R9">
-        <v>0.67330000000000001</v>
+        <v>0.6754</v>
       </c>
       <c r="S9">
-        <v>0.37019999999999997</v>
+        <v>0.63890000000000002</v>
       </c>
       <c r="T9">
-        <v>0.89370000000000005</v>
+        <v>0.78920000000000001</v>
       </c>
       <c r="U9">
-        <v>0.83960000000000001</v>
+        <v>0.97889999999999999</v>
       </c>
       <c r="V9">
-        <v>0.54069999999999996</v>
+        <v>0.56369999999999998</v>
       </c>
       <c r="W9">
-        <v>0.38</v>
+        <v>0.61339999999999995</v>
       </c>
       <c r="X9">
-        <v>0.76270000000000004</v>
+        <v>0.51119999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.65139999999999998</v>
+        <v>0.437</v>
       </c>
       <c r="Z9">
-        <v>0.46129999999999999</v>
+        <v>0.69979999999999998</v>
       </c>
       <c r="AA9">
-        <v>0.49690000000000001</v>
+        <v>0.56040000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.23519999999999999</v>
+        <v>0.88739999999999997</v>
       </c>
       <c r="AC9">
-        <v>0.84130000000000005</v>
+        <v>0.78510000000000002</v>
       </c>
       <c r="AD9">
-        <v>0.54410000000000003</v>
+        <v>0.53939999999999999</v>
       </c>
       <c r="AE9">
-        <v>0.43440000000000001</v>
+        <v>0.47920000000000001</v>
       </c>
       <c r="AF9">
-        <v>0.74929999999999997</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="AG9">
-        <v>0.77329999999999999</v>
+        <v>0.28849999999999998</v>
       </c>
       <c r="AH9">
-        <v>9.0999999999999998E-2</v>
+        <v>0.3775</v>
       </c>
       <c r="AI9">
-        <v>0.48599999999999999</v>
+        <v>0.42870000000000003</v>
       </c>
       <c r="AJ9">
-        <v>0.49320000000000003</v>
+        <v>0.67430000000000001</v>
       </c>
       <c r="AK9">
-        <v>0.74760000000000004</v>
+        <v>0.28449999999999998</v>
       </c>
       <c r="AL9">
-        <v>0.70320000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="AM9">
-        <v>0.4526</v>
+        <v>0.6</v>
       </c>
       <c r="AN9">
-        <v>0.44080000000000003</v>
+        <v>0.59909999999999997</v>
       </c>
       <c r="AO9">
-        <v>0.61619999999999997</v>
+        <v>0.32229999999999998</v>
       </c>
       <c r="AP9">
-        <v>0.46679999999999999</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="AQ9">
-        <v>0.33050000000000002</v>
+        <v>0.43180000000000002</v>
       </c>
       <c r="AR9">
-        <v>0.73709999999999998</v>
+        <v>0.58989999999999998</v>
       </c>
       <c r="AS9">
-        <v>0.82240000000000002</v>
+        <v>0.80169999999999997</v>
       </c>
       <c r="AT9">
-        <v>0.68830000000000002</v>
+        <v>0.86450000000000005</v>
       </c>
       <c r="AU9">
-        <v>0.35299999999999998</v>
+        <v>0.30859999999999999</v>
       </c>
       <c r="AV9">
-        <v>0.77669999999999995</v>
+        <v>0.59419999999999995</v>
       </c>
       <c r="AW9">
-        <v>0.44690000000000002</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="AX9">
-        <v>0.66159999999999997</v>
+        <v>0.17050000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.39610000000000001</v>
+        <v>0.28129999999999999</v>
       </c>
       <c r="B10">
-        <v>0.57930000000000004</v>
+        <v>0.28610000000000002</v>
       </c>
       <c r="C10">
-        <v>0.44640000000000002</v>
+        <v>0.73340000000000005</v>
       </c>
       <c r="D10">
-        <v>0.76949999999999996</v>
+        <v>0.71589999999999998</v>
       </c>
       <c r="E10">
-        <v>0.31580000000000003</v>
+        <v>0.80349999999999999</v>
       </c>
       <c r="F10">
-        <v>0.83730000000000004</v>
+        <v>0.85119999999999996</v>
       </c>
       <c r="G10">
-        <v>1.8700000000000001E-2</v>
+        <v>0.54830000000000001</v>
       </c>
       <c r="H10">
-        <v>0.53920000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="I10">
-        <v>0.56850000000000001</v>
+        <v>0.5444</v>
       </c>
       <c r="J10">
-        <v>0.71060000000000001</v>
+        <v>0.35560000000000003</v>
       </c>
       <c r="K10">
-        <v>0.73160000000000003</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="L10">
-        <v>0.2913</v>
+        <v>0.69030000000000002</v>
       </c>
       <c r="M10">
-        <v>0.74639999999999995</v>
+        <v>0.73019999999999996</v>
       </c>
       <c r="N10">
-        <v>0.68010000000000004</v>
+        <v>0.39579999999999999</v>
       </c>
       <c r="O10">
-        <v>0.9153</v>
+        <v>0.43409999999999999</v>
       </c>
       <c r="P10">
-        <v>0.43590000000000001</v>
+        <v>0.1245</v>
       </c>
       <c r="Q10">
-        <v>0.57740000000000002</v>
+        <v>0.91930000000000001</v>
       </c>
       <c r="R10">
-        <v>0.55659999999999998</v>
+        <v>0.70020000000000004</v>
       </c>
       <c r="S10">
-        <v>0.37190000000000001</v>
+        <v>0.68989999999999996</v>
       </c>
       <c r="T10">
-        <v>0.87360000000000004</v>
+        <v>0.79969999999999997</v>
       </c>
       <c r="U10">
-        <v>0.74780000000000002</v>
+        <v>0.8901</v>
       </c>
       <c r="V10">
-        <v>0.66759999999999997</v>
+        <v>0.66449999999999998</v>
       </c>
       <c r="W10">
-        <v>0.45669999999999999</v>
+        <v>0.5867</v>
       </c>
       <c r="X10">
-        <v>0.88270000000000004</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="Y10">
-        <v>0.43419999999999997</v>
+        <v>0.2429</v>
       </c>
       <c r="Z10">
-        <v>0.57489999999999997</v>
+        <v>0.60570000000000002</v>
       </c>
       <c r="AA10">
-        <v>0.51700000000000002</v>
+        <v>0.40570000000000001</v>
       </c>
       <c r="AB10">
-        <v>0.2732</v>
+        <v>0.8044</v>
       </c>
       <c r="AC10">
-        <v>0.76390000000000002</v>
+        <v>0.61119999999999997</v>
       </c>
       <c r="AD10">
-        <v>0.61980000000000002</v>
+        <v>0.6048</v>
       </c>
       <c r="AE10">
-        <v>0.40210000000000001</v>
+        <v>0.48520000000000002</v>
       </c>
       <c r="AF10">
-        <v>0.76419999999999999</v>
+        <v>0.496</v>
       </c>
       <c r="AG10">
-        <v>0.8589</v>
+        <v>0.41739999999999999</v>
       </c>
       <c r="AH10">
-        <v>0.1207</v>
+        <v>0.30890000000000001</v>
       </c>
       <c r="AI10">
-        <v>0.54800000000000004</v>
+        <v>0.63139999999999996</v>
       </c>
       <c r="AJ10">
-        <v>0.66659999999999997</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="AK10">
-        <v>0.76290000000000002</v>
+        <v>0.12870000000000001</v>
       </c>
       <c r="AL10">
-        <v>0.80059999999999998</v>
+        <v>0.41470000000000001</v>
       </c>
       <c r="AM10">
-        <v>0.61950000000000005</v>
+        <v>0.74439999999999995</v>
       </c>
       <c r="AN10">
-        <v>0.4743</v>
+        <v>0.76749999999999996</v>
       </c>
       <c r="AO10">
-        <v>0.57369999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="AP10">
-        <v>0.53790000000000004</v>
+        <v>0.53710000000000002</v>
       </c>
       <c r="AQ10">
-        <v>0.2797</v>
+        <v>0.47960000000000003</v>
       </c>
       <c r="AR10">
-        <v>0.68500000000000005</v>
+        <v>0.49559999999999998</v>
       </c>
       <c r="AS10">
-        <v>0.77549999999999997</v>
+        <v>0.55640000000000001</v>
       </c>
       <c r="AT10">
-        <v>0.65639999999999998</v>
+        <v>0.82010000000000005</v>
       </c>
       <c r="AU10">
-        <v>0.36919999999999997</v>
+        <v>0.19489999999999999</v>
       </c>
       <c r="AV10">
-        <v>0.77700000000000002</v>
+        <v>0.52039999999999997</v>
       </c>
       <c r="AW10">
-        <v>0.37159999999999999</v>
+        <v>0.3901</v>
       </c>
       <c r="AX10">
-        <v>0.5171</v>
+        <v>0.19089999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.14990000000000001</v>
+        <v>0.5907</v>
       </c>
       <c r="B11">
-        <v>0.34520000000000001</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="C11">
-        <v>0.16900000000000001</v>
+        <v>0.75849999999999995</v>
       </c>
       <c r="D11">
+        <v>0.60680000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.70809999999999995</v>
+      </c>
+      <c r="F11">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="G11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H11">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="I11">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.50970000000000004</v>
+      </c>
+      <c r="K11">
+        <v>0.47470000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="M11">
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="N11">
+        <v>0.4924</v>
+      </c>
+      <c r="O11">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="P11">
+        <v>0.2349</v>
+      </c>
+      <c r="Q11">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="R11">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="S11">
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="T11">
+        <v>0.81330000000000002</v>
+      </c>
+      <c r="U11">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="V11">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="W11">
+        <v>0.53979999999999995</v>
+      </c>
+      <c r="X11">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="Y11">
+        <v>0.1658</v>
+      </c>
+      <c r="Z11">
+        <v>0.75970000000000004</v>
+      </c>
+      <c r="AA11">
+        <v>0.23449999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>0.6462</v>
+      </c>
+      <c r="AC11">
+        <v>0.69140000000000001</v>
+      </c>
+      <c r="AD11">
+        <v>0.53369999999999995</v>
+      </c>
+      <c r="AE11">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AF11">
+        <v>0.35389999999999999</v>
+      </c>
+      <c r="AG11">
+        <v>0.43559999999999999</v>
+      </c>
+      <c r="AH11">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="AI11">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="AJ11">
+        <v>0.40579999999999999</v>
+      </c>
+      <c r="AK11">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="AL11">
+        <v>0.68930000000000002</v>
+      </c>
+      <c r="AM11">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="AN11">
         <v>0.66069999999999995</v>
       </c>
-      <c r="E11">
-        <v>0.48520000000000002</v>
-      </c>
-      <c r="F11">
-        <v>0.66339999999999999</v>
-      </c>
-      <c r="G11">
-        <v>2.93E-2</v>
-      </c>
-      <c r="H11">
-        <v>0.31359999999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.48859999999999998</v>
-      </c>
-      <c r="J11">
-        <v>0.65429999999999999</v>
-      </c>
-      <c r="K11">
-        <v>0.62070000000000003</v>
-      </c>
-      <c r="L11">
-        <v>0.42259999999999998</v>
-      </c>
-      <c r="M11">
-        <v>0.67779999999999996</v>
-      </c>
-      <c r="N11">
-        <v>0.65639999999999998</v>
-      </c>
-      <c r="O11">
-        <v>0.79759999999999998</v>
-      </c>
-      <c r="P11">
-        <v>0.47310000000000002</v>
-      </c>
-      <c r="Q11">
-        <v>0.51449999999999996</v>
-      </c>
-      <c r="R11">
-        <v>0.58209999999999995</v>
-      </c>
-      <c r="S11">
-        <v>0.51160000000000005</v>
-      </c>
-      <c r="T11">
-        <v>0.78269999999999995</v>
-      </c>
-      <c r="U11">
-        <v>0.87990000000000002</v>
-      </c>
-      <c r="V11">
-        <v>0.44469999999999998</v>
-      </c>
-      <c r="W11">
-        <v>0.62949999999999995</v>
-      </c>
-      <c r="X11">
-        <v>0.78129999999999999</v>
-      </c>
-      <c r="Y11">
-        <v>0.54959999999999998</v>
-      </c>
-      <c r="Z11">
-        <v>0.75529999999999997</v>
-      </c>
-      <c r="AA11">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="AB11">
-        <v>0.3649</v>
-      </c>
-      <c r="AC11">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="AD11">
-        <v>0.47660000000000002</v>
-      </c>
-      <c r="AE11">
-        <v>0.49980000000000002</v>
-      </c>
-      <c r="AF11">
-        <v>0.79490000000000005</v>
-      </c>
-      <c r="AG11">
-        <v>0.92230000000000001</v>
-      </c>
-      <c r="AH11">
-        <v>0.08</v>
-      </c>
-      <c r="AI11">
-        <v>0.56079999999999997</v>
-      </c>
-      <c r="AJ11">
-        <v>0.6008</v>
-      </c>
-      <c r="AK11">
-        <v>0.70650000000000002</v>
-      </c>
-      <c r="AL11">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="AM11">
-        <v>0.50329999999999997</v>
-      </c>
-      <c r="AN11">
-        <v>0.37809999999999999</v>
-      </c>
       <c r="AO11">
-        <v>0.61240000000000006</v>
+        <v>0.35439999999999999</v>
       </c>
       <c r="AP11">
-        <v>0.53769999999999996</v>
+        <v>0.67930000000000001</v>
       </c>
       <c r="AQ11">
-        <v>0.23830000000000001</v>
+        <v>0.71689999999999998</v>
       </c>
       <c r="AR11">
-        <v>0.81089999999999995</v>
+        <v>0.374</v>
       </c>
       <c r="AS11">
-        <v>0.60870000000000002</v>
+        <v>0.60140000000000005</v>
       </c>
       <c r="AT11">
-        <v>0.77039999999999997</v>
+        <v>0.73729999999999996</v>
       </c>
       <c r="AU11">
-        <v>0.3125</v>
+        <v>0.21940000000000001</v>
       </c>
       <c r="AV11">
-        <v>0.77410000000000001</v>
+        <v>0.61819999999999997</v>
       </c>
       <c r="AW11">
-        <v>0.52880000000000005</v>
+        <v>0.4027</v>
       </c>
       <c r="AX11">
-        <v>0.48020000000000002</v>
+        <v>5.1799999999999999E-2</v>
       </c>
     </row>
   </sheetData>
